--- a/家具电器.xlsx
+++ b/家具电器.xlsx
@@ -1,23 +1,143 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="600" yWindow="105" windowWidth="19395" windowHeight="7605"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="125725"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="29">
+  <si>
+    <t>区域</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>约束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主房</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>床</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>床垫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数量</t>
+  </si>
+  <si>
+    <t>床头柜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梳妆台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>衣柜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>老房</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小房</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>书房</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>书柜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地柜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客房</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>书桌、椅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梳妆台、椅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客厅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电视柜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>茶几</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沙发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>饭厅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>饭桌、椅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>餐边柜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鞋柜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长最好≤2400，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.9m长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -32,6 +152,13 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -56,9 +183,21 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -354,15 +493,212 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="20.25"/>
+  <cols>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.125" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="40.5">
+      <c r="A2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="3"/>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="3"/>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="3"/>
+      <c r="B5" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="3"/>
+      <c r="B6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="3"/>
+      <c r="B8" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="3"/>
+      <c r="B9" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="3"/>
+      <c r="B10" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="3"/>
+      <c r="B11" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="3"/>
+      <c r="B13" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="3"/>
+      <c r="B14" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="3"/>
+      <c r="B15" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="3"/>
+      <c r="B17" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="3"/>
+      <c r="B18" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="3"/>
+      <c r="B21" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="3"/>
+      <c r="B22" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="3"/>
+      <c r="B23" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="2"/>
+      <c r="B25" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A20:A23"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -376,7 +712,6 @@
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -390,6 +725,5 @@
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/家具电器.xlsx
+++ b/家具电器.xlsx
@@ -16,7 +16,86 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="44">
+  <si>
+    <t>主房</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>床</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>床垫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数量</t>
+  </si>
+  <si>
+    <t>床头柜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>衣柜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>老房</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小房</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>书房</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>书柜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地柜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客房</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客厅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电视柜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>茶几</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沙发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>饭厅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>餐边柜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鞋柜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
   <si>
     <t>区域</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -26,11 +105,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>约束</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主房</t>
+    <t>单价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梳妆台凳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>书桌椅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>书桌椅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>饭桌椅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>视乎空间决定是否购置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不能太长（留通道），先装电视试试剩余长度空间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -38,98 +145,53 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>床垫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数量</t>
-  </si>
-  <si>
-    <t>床头柜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>梳妆台</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>衣柜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>老房</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小房</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>书房</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>书柜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地柜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>客房</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>书桌、椅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>梳妆台、椅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>客厅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电视柜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>茶几</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>沙发</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>饭厅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>饭桌、椅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>餐边柜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>鞋柜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>长最好≤2400，</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>定制</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.9m长</t>
+    <t>贵妃位置、空间、开关插座</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空间、开关插座</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>桌面宽度（≥800）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空间、空调口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与书桌之间共用空间、顶梁、窗帘空间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与衣柜之间共用空间、桌面书柜位置、开关插座</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空间、开关插座位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空间、开关插座位置、顶梁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开关插座位置、容纳空间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长最好≤2400（留通道）
+宽加上2个床头柜宽不要太宽
+开关插座位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>厚度、高度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>窗帘位置</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -137,7 +199,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -155,6 +217,20 @@
     </font>
     <font>
       <sz val="14"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
       <family val="2"/>
@@ -183,21 +259,30 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -493,212 +578,292 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25"/>
   <cols>
-    <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.125" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="9" style="2"/>
+    <col min="2" max="2" width="14" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" style="2"/>
+    <col min="4" max="4" width="9" style="3"/>
+    <col min="5" max="5" width="9" style="2"/>
+    <col min="6" max="6" width="40.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" s="4" customFormat="1" ht="24.75">
+      <c r="A1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="49.5">
+      <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F2" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="5"/>
+      <c r="B3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="7"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="5"/>
+      <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F4" s="7"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="5"/>
+      <c r="B5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="5"/>
+      <c r="B6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1"/>
+      <c r="F7" s="7"/>
+    </row>
+    <row r="8" spans="1:6" ht="33">
+      <c r="A8" s="5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="40.5">
-      <c r="A2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="B8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="5"/>
+      <c r="B9" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="F9" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="5"/>
+      <c r="B10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F10" s="7"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="5"/>
+      <c r="B11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="5"/>
+      <c r="B12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1"/>
+      <c r="F13" s="7"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F14" s="7"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="5"/>
+      <c r="B15" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F15" s="7"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="5"/>
+      <c r="B16" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="5"/>
+      <c r="B17" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="1"/>
+      <c r="F18" s="7"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="3"/>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="3"/>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="3"/>
-      <c r="B5" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="3"/>
-      <c r="B6" s="1" t="s">
+      <c r="F19" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="5"/>
+      <c r="B20" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="F20" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="5"/>
+      <c r="B21" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="1"/>
+      <c r="F22" s="7"/>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="F24" s="7"/>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="5"/>
+      <c r="B26" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F26" s="7"/>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="5"/>
+      <c r="B27" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F27" s="7"/>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="5"/>
+      <c r="B28" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="1"/>
+      <c r="F29" s="7"/>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="3"/>
-      <c r="B8" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="3"/>
-      <c r="B9" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="3"/>
-      <c r="B10" s="1" t="s">
+      <c r="F30" s="7"/>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="5"/>
+      <c r="B31" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="3"/>
-      <c r="B11" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="3"/>
-      <c r="B13" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="3"/>
-      <c r="B14" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="3"/>
-      <c r="B15" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="3"/>
-      <c r="B17" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="3"/>
-      <c r="B18" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="3"/>
-      <c r="B21" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="3"/>
-      <c r="B22" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="3"/>
-      <c r="B23" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="2"/>
-      <c r="B25" s="1" t="s">
-        <v>24</v>
+      <c r="F31" s="7" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="A30:A31"/>
     <mergeCell ref="A2:A6"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="A8:A12"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A25:A28"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
